--- a/data/trans_orig/P1433-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1433-Provincia-trans_orig.xlsx
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6281</v>
+        <v>5677</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003641262962543153</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01242495048118533</v>
+        <v>0.01123026799706924</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6445</v>
+        <v>5581</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001790300445738477</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006268158534076615</v>
+        <v>0.005428279445607604</v>
       </c>
     </row>
     <row r="8">
@@ -974,7 +974,7 @@
         <v>503686</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>499246</v>
+        <v>499850</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>505527</v>
@@ -983,7 +983,7 @@
         <v>0.9963587370374568</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9875750495188146</v>
+        <v>0.9887697320029308</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>1026343</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1021739</v>
+        <v>1022603</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1028184</v>
@@ -1017,7 +1017,7 @@
         <v>0.9982096995542615</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9937318414659234</v>
+        <v>0.9945717205543924</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5525</v>
+        <v>5375</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003375474945032683</v>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01704978402302074</v>
+        <v>0.01658776098791454</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6213</v>
+        <v>6457</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001644662547724525</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.009341807331076578</v>
+        <v>0.009708423953528311</v>
       </c>
     </row>
     <row r="11">
@@ -1175,7 +1175,7 @@
         <v>322952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>318521</v>
+        <v>318671</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>324046</v>
@@ -1184,7 +1184,7 @@
         <v>0.9966245250549673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9829502159769792</v>
+        <v>0.9834122390120853</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>663972</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>658853</v>
+        <v>658609</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>665066</v>
@@ -1218,7 +1218,7 @@
         <v>0.9983553374522754</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9906581926689227</v>
+        <v>0.990291576046472</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1326,19 +1326,19 @@
         <v>3815</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8913</v>
+        <v>8767</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.009807562497768454</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00247749205331278</v>
+        <v>0.002487081602299595</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02291597742387637</v>
+        <v>0.0225391634228593</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1347,19 +1347,19 @@
         <v>3815</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8680</v>
+        <v>9622</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004999994293952829</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001268678576206284</v>
+        <v>0.001279647725539432</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01137748008629539</v>
+        <v>0.01261240367943259</v>
       </c>
     </row>
     <row r="14">
@@ -1389,19 +1389,19 @@
         <v>385136</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>380038</v>
+        <v>380184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>387987</v>
+        <v>387984</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9901924375022315</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9770840225761226</v>
+        <v>0.9774608365771407</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9975225079466873</v>
+        <v>0.9975129183977004</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>711</v>
@@ -1410,19 +1410,19 @@
         <v>759118</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>754253</v>
+        <v>753311</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>761965</v>
+        <v>761957</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9950000057060472</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9886225199137046</v>
+        <v>0.9873875963205675</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9987313214237937</v>
+        <v>0.9987203522744607</v>
       </c>
     </row>
     <row r="15">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4652</v>
+        <v>4450</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001353327010600438</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007018262059263068</v>
+        <v>0.006713458834555852</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -1876,16 +1876,16 @@
         <v>1041</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8623</v>
+        <v>8615</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.004644478126212546</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001500435115471225</v>
+        <v>0.001500038714307051</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01242705891169948</v>
+        <v>0.01241669876098153</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1894,19 +1894,19 @@
         <v>4120</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1074</v>
+        <v>1050</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>9605</v>
+        <v>10334</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003036583643621891</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0007917485808398083</v>
+        <v>0.0007742022548825502</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007079635038431994</v>
+        <v>0.007617584659934937</v>
       </c>
     </row>
     <row r="23">
@@ -1923,7 +1923,7 @@
         <v>661891</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>658136</v>
+        <v>658338</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>662788</v>
@@ -1932,7 +1932,7 @@
         <v>0.9986466729893996</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9929817379407386</v>
+        <v>0.9932865411654441</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>690630</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>685230</v>
+        <v>685238</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>692812</v>
@@ -1953,10 +1953,10 @@
         <v>0.9953555218737875</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9875729410883005</v>
+        <v>0.9875833012390185</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9984995648845287</v>
+        <v>0.998499961285693</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1250</v>
@@ -1965,19 +1965,19 @@
         <v>1352521</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1347036</v>
+        <v>1346307</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1355567</v>
+        <v>1355591</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9969634163563781</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9929203649615679</v>
+        <v>0.9923824153400649</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9992082514191601</v>
+        <v>0.9992257977451174</v>
       </c>
     </row>
     <row r="24">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4392</v>
+        <v>4732</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001202688784286128</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.005637787850415826</v>
+        <v>0.006073701285237902</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2090,19 +2090,19 @@
         <v>3269</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8867</v>
+        <v>8770</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00397859857102531</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00127297071517592</v>
+        <v>0.001268727896216825</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01079187700926237</v>
+        <v>0.01067392859103187</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -2114,16 +2114,16 @@
         <v>1053</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10506</v>
+        <v>10554</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002627508699010393</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0006579754754806276</v>
+        <v>0.0006579919396031691</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.006563513443915868</v>
+        <v>0.006593188124115216</v>
       </c>
     </row>
     <row r="26">
@@ -2140,7 +2140,7 @@
         <v>778161</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>774706</v>
+        <v>774366</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>779098</v>
@@ -2149,7 +2149,7 @@
         <v>0.9987973112157139</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9943622121495842</v>
+        <v>0.9939262987147621</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2161,19 +2161,19 @@
         <v>818345</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>812747</v>
+        <v>812844</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>820568</v>
+        <v>820572</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9960214014289747</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9892081229907377</v>
+        <v>0.9893260714089681</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.998727029284824</v>
+        <v>0.9987312721037832</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1468</v>
@@ -2182,7 +2182,7 @@
         <v>1596507</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1590207</v>
+        <v>1590159</v>
       </c>
       <c r="T26" s="5" t="n">
         <v>1599660</v>
@@ -2191,10 +2191,10 @@
         <v>0.9973724913009896</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9934364865560835</v>
+        <v>0.9934068118758849</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9993420245245193</v>
+        <v>0.9993420080603969</v>
       </c>
     </row>
     <row r="27">
@@ -2286,19 +2286,19 @@
         <v>4769</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1784</v>
+        <v>1830</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10412</v>
+        <v>10812</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.001391554251153087</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0005205949712133051</v>
+        <v>0.0005341168774881757</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.003038450449965317</v>
+        <v>0.003155040617709252</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2307,19 +2307,19 @@
         <v>10306</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5215</v>
+        <v>5183</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18457</v>
+        <v>17893</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002900659454108825</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.001467888257945031</v>
+        <v>0.001458877831587937</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.005194804685068055</v>
+        <v>0.005035892604504448</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>15</v>
@@ -2328,19 +2328,19 @@
         <v>15075</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8907</v>
+        <v>9131</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>24986</v>
+        <v>25996</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.002159754869505297</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.001276114822732967</v>
+        <v>0.001308233099389859</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.003579690352300463</v>
+        <v>0.003724432894865298</v>
       </c>
     </row>
     <row r="29">
@@ -2357,19 +2357,19 @@
         <v>3422010</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3416367</v>
+        <v>3415967</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3424995</v>
+        <v>3424949</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9986084457488469</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9969615495500347</v>
+        <v>0.9968449593822908</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9994794050287867</v>
+        <v>0.9994658831225118</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3284</v>
@@ -2378,19 +2378,19 @@
         <v>3542720</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3534569</v>
+        <v>3535133</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3547811</v>
+        <v>3547843</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9970993405458912</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9948051953149319</v>
+        <v>0.9949641073954956</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9985321117420549</v>
+        <v>0.9985411221684121</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6488</v>
@@ -2399,19 +2399,19 @@
         <v>6964730</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6954819</v>
+        <v>6953809</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6970898</v>
+        <v>6970674</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9978402451304947</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9964203096476996</v>
+        <v>0.9962755671051349</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.998723885177267</v>
+        <v>0.9986917669006102</v>
       </c>
     </row>
     <row r="30">
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5086</v>
+        <v>5049</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00353239146014676</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01761807873730635</v>
+        <v>0.01748683063587429</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6561</v>
+        <v>5157</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001750858439335182</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01126410006879991</v>
+        <v>0.008853255605078856</v>
       </c>
     </row>
     <row r="5">
@@ -2823,7 +2823,7 @@
         <v>287683</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>283617</v>
+        <v>283654</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>288703</v>
@@ -2832,7 +2832,7 @@
         <v>0.9964676085398533</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9823819212626937</v>
+        <v>0.9825131693641257</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2844,7 +2844,7 @@
         <v>581444</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>575903</v>
+        <v>577307</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>582464</v>
@@ -2853,7 +2853,7 @@
         <v>0.9982491415606648</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9887358999312006</v>
+        <v>0.9911467443949211</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -3793,19 +3793,19 @@
         <v>2874</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8443</v>
+        <v>8079</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004377423039112475</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001357282933655913</v>
+        <v>0.001355429369238847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01285954648106085</v>
+        <v>0.01230459341154221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1</v>
@@ -3817,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5112</v>
+        <v>5117</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001475579248149671</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.007394448567920919</v>
+        <v>0.007402313201328075</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -3835,19 +3835,19 @@
         <v>3894</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>915</v>
+        <v>1018</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10428</v>
+        <v>9575</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002889108886925923</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0006791269744440238</v>
+        <v>0.0007555672729432964</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007736662751320662</v>
+        <v>0.007104113891220541</v>
       </c>
     </row>
     <row r="23">
@@ -3864,19 +3864,19 @@
         <v>653684</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>648115</v>
+        <v>648479</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>655667</v>
+        <v>655668</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9956225769608875</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9871404535189391</v>
+        <v>0.9876954065884577</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9986427170663441</v>
+        <v>0.9986445706307612</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>645</v>
@@ -3885,7 +3885,7 @@
         <v>690274</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>686182</v>
+        <v>686177</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>691294</v>
@@ -3894,7 +3894,7 @@
         <v>0.9985244207518503</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9926055514320791</v>
+        <v>0.9925976867986719</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -3906,19 +3906,19 @@
         <v>1343958</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1337424</v>
+        <v>1338277</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1346937</v>
+        <v>1346834</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.997110891113074</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9922633372486798</v>
+        <v>0.9928958861087791</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9993208730255559</v>
+        <v>0.9992444327270567</v>
       </c>
     </row>
     <row r="24">
@@ -4179,19 +4179,19 @@
         <v>2874</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7862</v>
+        <v>7959</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0008467105045476443</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0</v>
+        <v>0.0002614126325114895</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.002316292141647879</v>
+        <v>0.002344656561538461</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6947</v>
+        <v>7142</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0005754963787181816</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.001959908057820836</v>
+        <v>0.002014825371844866</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -4221,19 +4221,19 @@
         <v>4914</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10176</v>
+        <v>10866</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0007081682398282754</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0002751256933122218</v>
+        <v>0.0002746808990325804</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.001466581083363248</v>
+        <v>0.001566026257973857</v>
       </c>
     </row>
     <row r="29">
@@ -4250,19 +4250,19 @@
         <v>3391476</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3386488</v>
+        <v>3386391</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3394350</v>
+        <v>3393463</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9991532894954523</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9976837078583521</v>
+        <v>0.9976553434384621</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1</v>
+        <v>0.9997385873674886</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3336</v>
@@ -4271,7 +4271,7 @@
         <v>3542502</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3537595</v>
+        <v>3537400</v>
       </c>
       <c r="M29" s="5" t="n">
         <v>3544542</v>
@@ -4280,7 +4280,7 @@
         <v>0.9994245036212818</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9980400919421771</v>
+        <v>0.9979851746281551</v>
       </c>
       <c r="P29" s="6" t="n">
         <v>1</v>
@@ -4292,19 +4292,19 @@
         <v>6933978</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6928716</v>
+        <v>6928026</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6936983</v>
+        <v>6936986</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9992918317601718</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9985334189166369</v>
+        <v>0.9984339737420264</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9997248743066878</v>
+        <v>0.9997253191009674</v>
       </c>
     </row>
     <row r="30">
